--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,198 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Less than $100000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>More than $50000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>example@example.com</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>investor</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Role</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -453,7 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&gt; $100000</t>
         </is>
       </c>
     </row>
@@ -465,7 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&gt; $100000</t>
         </is>
       </c>
     </row>
@@ -477,7 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&gt; $100000</t>
         </is>
       </c>
     </row>
@@ -489,7 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&gt; $100000</t>
         </is>
       </c>
     </row>
@@ -501,7 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&gt; $100000</t>
         </is>
       </c>
     </row>
@@ -513,7 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt; $50000</t>
         </is>
       </c>
     </row>
@@ -525,139 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Less than $100000</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>More than $50000</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>investor</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>example@example.com</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>investor</t>
+          <t>Investor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&gt; $100000</t>
         </is>
       </c>
     </row>
